--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/mother_laying_bydate.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/mother_laying_bydate.xlsx
@@ -8,27 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAD55D8-93CE-6C47-A884-297295CABEEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9059D8-0DF3-594A-A7B3-121D08B94898}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{E14F8870-8DED-064C-A3A0-F7635F8AECA1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="mother_laying_bydate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$2:$E$30</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$F$2:$F$30</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$2:$F$30</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$2:$E$30</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$2:$F$30</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$2:$E$30</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$F$2:$F$30</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$2:$E$30</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="17">
   <si>
     <t>collect_date</t>
   </si>
@@ -84,6 +67,15 @@
   </si>
   <si>
     <t>HS</t>
+  </si>
+  <si>
+    <t>8.27.21</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>MID</t>
   </si>
 </sst>
 </file>
@@ -435,29 +427,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE6B1BE-B14C-BE4C-BCD4-C1716963499F}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -465,13 +455,13 @@
         <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -479,13 +469,13 @@
         <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -493,13 +483,13 @@
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -507,13 +497,13 @@
         <v>335</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -521,13 +511,13 @@
         <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -535,13 +525,13 @@
         <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -549,13 +539,13 @@
         <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -563,13 +553,13 @@
         <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -577,13 +567,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -591,13 +581,13 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -605,13 +595,13 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -619,13 +609,13 @@
         <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -633,13 +623,13 @@
         <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -647,13 +637,13 @@
         <v>329</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -661,13 +651,13 @@
         <v>363</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -675,13 +665,13 @@
         <v>335</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -689,13 +679,13 @@
         <v>262</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -703,13 +693,13 @@
         <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -717,13 +707,13 @@
         <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -731,13 +721,13 @@
         <v>339</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -745,13 +735,13 @@
         <v>389</v>
       </c>
       <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
         <v>12</v>
-      </c>
-      <c r="C22">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -759,13 +749,13 @@
         <v>367</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -773,13 +763,13 @@
         <v>288</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -787,13 +777,13 @@
         <v>387</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -801,13 +791,13 @@
         <v>349</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -815,13 +805,13 @@
         <v>355</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -829,13 +819,13 @@
         <v>229</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -843,13 +833,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -857,13 +847,433 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>211</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>288</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>298</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>329</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>92</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>316</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>317</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>363</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>263</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>247</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>355</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>356</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>232</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>348</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>129</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>44</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/mother_laying_bydate.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/mother_laying_bydate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9059D8-0DF3-594A-A7B3-121D08B94898}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C43181-B3A7-6F4C-B890-1F4A086D8A87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{E14F8870-8DED-064C-A3A0-F7635F8AECA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="24">
   <si>
     <t>collect_date</t>
   </si>
@@ -76,6 +76,27 @@
   </si>
   <si>
     <t>MID</t>
+  </si>
+  <si>
+    <t>8.31.21</t>
+  </si>
+  <si>
+    <t>9.8.21</t>
+  </si>
+  <si>
+    <t>9.10.21</t>
+  </si>
+  <si>
+    <t>9.13.21</t>
+  </si>
+  <si>
+    <t>9.16.21</t>
+  </si>
+  <si>
+    <t>9.22.21</t>
+  </si>
+  <si>
+    <t>10.07.21</t>
   </si>
 </sst>
 </file>
@@ -427,9 +448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE6B1BE-B14C-BE4C-BCD4-C1716963499F}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1276,6 +1299,1632 @@
         <v>13</v>
       </c>
     </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>288</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>298</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>387</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>184</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>317</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>339</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>329</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>202</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>114</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>262</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>164</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>153</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>22</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>129</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>229</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>349</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77">
+        <v>30</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>348</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>389</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>263</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>148</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82">
+        <v>27</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83">
+        <v>37</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>232</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84">
+        <v>61</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>41</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85">
+        <v>26</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>22</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86">
+        <v>44</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>25</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87">
+        <v>32</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>24</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88">
+        <v>44</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>221</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <v>34</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>43</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90">
+        <v>26</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>212</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>48</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>36</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>213</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>350</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>136</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95">
+        <v>11</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>130</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <v>25</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>153</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>184</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98">
+        <v>14</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>194</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>391</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>60</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>114</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>329</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103">
+        <f>84+59</f>
+        <v>143</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>39</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>387</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106">
+        <v>15</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>24</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107">
+        <v>84</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>89</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108">
+        <v>21</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>232</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109">
+        <v>76</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>155</v>
+      </c>
+      <c r="B110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110">
+        <v>69</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>144</v>
+      </c>
+      <c r="B111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>213</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>30</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>75</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113">
+        <v>32</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>25</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114">
+        <v>20</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>348</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115">
+        <v>33</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>188</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116">
+        <v>20</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>389</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>73</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118">
+        <v>22</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>70</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119">
+        <v>53</v>
+      </c>
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>221</v>
+      </c>
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120">
+        <v>53</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>148</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121">
+        <v>15</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>36</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122">
+        <v>15</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>22</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123">
+        <v>28</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>262</v>
+      </c>
+      <c r="B124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124">
+        <v>16</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>247</v>
+      </c>
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125">
+        <v>65</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>28</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126">
+        <v>86</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>224</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127">
+        <v>23</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>318</v>
+      </c>
+      <c r="B128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128">
+        <v>19</v>
+      </c>
+      <c r="D128">
+        <v>19</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129">
+        <v>107</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>206</v>
+      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130">
+        <v>33</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>201</v>
+      </c>
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131">
+        <v>75</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>317</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132">
+        <v>80</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>104</v>
+      </c>
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133">
+        <v>31</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134">
+        <v>23</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>356</v>
+      </c>
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135">
+        <v>106</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>350</v>
+      </c>
+      <c r="B136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136">
+        <v>112</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>29</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137">
+        <v>38</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138">
+        <v>49</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>73</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139">
+        <v>23</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>355</v>
+      </c>
+      <c r="B140" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140">
+        <v>55</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>300</v>
+      </c>
+      <c r="B141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141">
+        <v>7</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>43</v>
+      </c>
+      <c r="B142" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142">
+        <v>63</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>129</v>
+      </c>
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143">
+        <v>94</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>231</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144">
+        <v>69</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>229</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145">
+        <v>88</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>212</v>
+      </c>
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146">
+        <v>135</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>33</v>
+      </c>
+      <c r="B147" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147">
+        <v>136</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>349</v>
+      </c>
+      <c r="B148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148">
+        <v>61</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>388</v>
+      </c>
+      <c r="B149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149">
+        <v>25</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>263</v>
+      </c>
+      <c r="B150" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150">
+        <v>51</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>160</v>
+      </c>
+      <c r="B151" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151">
+        <v>21</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>147</v>
+      </c>
+      <c r="B152" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152">
+        <v>48</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>63</v>
+      </c>
+      <c r="B153" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153">
+        <v>47</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>363</v>
+      </c>
+      <c r="B154" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154">
+        <v>63</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>61</v>
+      </c>
+      <c r="B155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155">
+        <v>131</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>65</v>
+      </c>
+      <c r="B156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156">
+        <v>40</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>316</v>
+      </c>
+      <c r="B157" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157">
+        <v>8</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>191</v>
+      </c>
+      <c r="B158" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158">
+        <v>7</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>103</v>
+      </c>
+      <c r="B159" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159">
+        <v>28</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>283</v>
+      </c>
+      <c r="B160" t="s">
+        <v>23</v>
+      </c>
+      <c r="C160">
+        <v>8</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>164</v>
+      </c>
+      <c r="B161" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161">
+        <v>111</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>288</v>
+      </c>
+      <c r="B162" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162">
+        <v>105</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>202</v>
+      </c>
+      <c r="B163" t="s">
+        <v>23</v>
+      </c>
+      <c r="C163">
+        <v>41</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>182</v>
+      </c>
+      <c r="B164" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164">
+        <v>18</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>328</v>
+      </c>
+      <c r="B165" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165">
+        <v>17</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>318</v>
+      </c>
+      <c r="B166" t="s">
+        <v>23</v>
+      </c>
+      <c r="C166">
+        <v>80</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/mother_laying_bydate.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/mother_laying_bydate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C43181-B3A7-6F4C-B890-1F4A086D8A87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F74171-A083-C84F-A44C-4D3720B815F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{E14F8870-8DED-064C-A3A0-F7635F8AECA1}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{E14F8870-8DED-064C-A3A0-F7635F8AECA1}"/>
   </bookViews>
   <sheets>
     <sheet name="mother_laying_bydate" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="25">
   <si>
     <t>collect_date</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>10.07.21</t>
+  </si>
+  <si>
+    <t>10.18.21</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE6B1BE-B14C-BE4C-BCD4-C1716963499F}">
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2925,6 +2928,193 @@
         <v>7</v>
       </c>
     </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>114</v>
+      </c>
+      <c r="B167" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167">
+        <v>18</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+      <c r="E167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>118</v>
+      </c>
+      <c r="B168" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168">
+        <v>21</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>329</v>
+      </c>
+      <c r="B169" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169">
+        <v>24</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>103</v>
+      </c>
+      <c r="B170" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>335</v>
+      </c>
+      <c r="B171" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171">
+        <v>4</v>
+      </c>
+      <c r="D171">
+        <v>4</v>
+      </c>
+      <c r="E171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>202</v>
+      </c>
+      <c r="B172" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>339</v>
+      </c>
+      <c r="B173" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173">
+        <v>27</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>211</v>
+      </c>
+      <c r="B174" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174">
+        <v>6</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>317</v>
+      </c>
+      <c r="B175" t="s">
+        <v>24</v>
+      </c>
+      <c r="C175">
+        <v>36</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>16</v>
+      </c>
+      <c r="B176" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176">
+        <v>98</v>
+      </c>
+      <c r="D176">
+        <v>12</v>
+      </c>
+      <c r="E176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>339</v>
+      </c>
+      <c r="B177" t="s">
+        <v>24</v>
+      </c>
+      <c r="C177">
+        <v>42</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
